--- a/cadastro_salao/data/profissionais.xlsx
+++ b/cadastro_salao/data/profissionais.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>codigo</t>
   </si>
@@ -22,7 +22,19 @@
     <t>nome</t>
   </si>
   <si>
-    <t>Gilson</t>
+    <t>Abraão</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Jjj</t>
   </si>
 </sst>
 </file>
@@ -380,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +408,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cadastro_salao/data/profissionais.xlsx
+++ b/cadastro_salao/data/profissionais.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>codigo</t>
   </si>
@@ -22,19 +22,16 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
     <t>Abraão</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
     <t>João</t>
-  </si>
-  <si>
-    <t>Jjj</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,14 +435,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
